--- a/Översikt MALÅ.xlsx
+++ b/Översikt MALÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43720</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>43535</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43530</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>43636</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44454</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44463</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44847</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>45161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43321</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43346</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43353</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43354</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43363</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43402</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43445</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43447</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43507</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43509</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43530</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43601</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43609</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43635</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43642</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43651</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43690</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>43703</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
         <v>43704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43710</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43720</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>43734</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43748</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43752</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43755</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43755</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43755</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43761</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43762</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43767</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>43770</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43770</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43780</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43787</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43787</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43844</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43847</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43861</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43861</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43943</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43970</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43983</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>43983</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>43986</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>44011</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>44011</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44011</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>44021</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>44027</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>44046</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>44060</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>44064</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>44064</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>44070</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44078</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44088</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>44088</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44092</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>44104</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>44104</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44108</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44119</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44139</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44146</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44146</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44231</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44314</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44337</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44365</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44369</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>44385</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44389</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44413</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44439</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>44439</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44439</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>44439</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>44440</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>44440</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>44441</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>44446</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
         <v>44448</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44469</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44471</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44472</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44487</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44490</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>44490</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44491</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>44491</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>44491</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>44491</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>44503</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44523</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44524</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44524</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44525</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44543</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44550</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44552</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44575</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44587</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44587</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44588</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44588</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44616</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44617</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44641</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44641</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44678</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44698</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44729</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44732</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>44740</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>44749</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>44784</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44784</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44784</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>44792</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>44792</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12360,7 +12360,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12417,7 +12417,7 @@
         <v>44804</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>44811</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12531,7 +12531,7 @@
         <v>44817</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12588,7 +12588,7 @@
         <v>44832</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         <v>44837</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>44839</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44840</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>44846</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44846</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44846</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44853</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44853</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44854</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44858</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44858</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>44858</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44869</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         <v>44869</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44872</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>44872</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>44881</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>44881</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44881</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44881</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44893</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44893</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44893</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44893</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44893</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44893</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44907</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44909</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44909</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>44911</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>44917</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44928</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44928</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44939</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44944</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44964</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44964</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44964</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44967</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44967</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44985</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44985</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44985</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44994</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>45000</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>45000</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>45000</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>45000</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>45002</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>45002</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>45043</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>45054</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>45054</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>45054</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>45086</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>45098</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>45098</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>45103</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>45107</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>45111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>45111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>45111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>45139</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>45139</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>45139</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>45139</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45139</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>45139</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>45139</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>45139</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>45140</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>45145</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>45148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>45148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>45149</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>45149</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>45149</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>45149</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>45152</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>45152</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>45152</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>45152</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>45152</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45152</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>45152</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>45153</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>45153</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>45153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>45153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>45153</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>45153</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>45153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>45153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>45153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>45153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>45153</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45153</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>45153</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>45154</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>45154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>45154</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>45155</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>45155</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>45155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>45155</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>45156</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45156</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>45156</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>45156</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20049,7 +20049,7 @@
         <v>45156</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>45159</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>45159</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>45160</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>45160</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>45160</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45160</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>45160</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>45160</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>45160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21093,7 +21093,7 @@
         <v>45160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>45160</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>45160</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>45160</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>45160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21398,7 +21398,7 @@
         <v>45161</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>45161</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45161</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>45161</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45161</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45161</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>45161</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>45161</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>45162</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21936,7 +21936,7 @@
         <v>45162</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21993,7 +21993,7 @@
         <v>45162</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22050,7 +22050,7 @@
         <v>45163</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>45163</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>45163</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>45164</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>45166</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>45166</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>45166</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>45166</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45166</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>45167</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>45167</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45167</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>45168</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>45168</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>45168</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>45168</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>45168</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45168</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>45168</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>45168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>45168</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>45168</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>45168</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>

--- a/Översikt MALÅ.xlsx
+++ b/Översikt MALÅ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y387"/>
+  <dimension ref="A1:Y390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43720</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>43535</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43530</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>43636</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44454</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44463</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44847</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>45161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43321</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43346</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43353</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43354</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43363</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43402</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43445</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43447</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43507</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43509</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43530</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43601</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43609</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43635</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43642</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43651</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43690</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>43703</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
         <v>43704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43710</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43720</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>43734</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43748</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43752</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43755</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43755</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43755</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43761</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43762</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43767</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>43770</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43770</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43780</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43787</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43787</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43844</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43847</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43861</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43861</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43943</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43970</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43983</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>43983</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>43986</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>44011</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>44011</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44011</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>44021</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>44027</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>44046</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>44060</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>44064</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>44064</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>44070</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44078</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44088</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>44088</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44092</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>44104</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>44104</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44108</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44119</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44139</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44146</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44146</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44231</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44314</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44337</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44365</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44369</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>44385</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44389</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44413</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44439</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>44439</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44439</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>44439</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>44440</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>44440</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>44441</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>44446</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
         <v>44448</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44469</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44471</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44472</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44487</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44490</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>44490</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44491</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>44491</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>44491</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>44491</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>44503</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44523</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44524</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44524</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44525</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44543</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44550</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44552</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44575</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44587</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44587</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44588</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44588</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44616</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44617</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44641</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44641</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44678</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44698</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44729</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44732</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>44740</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>44749</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>44784</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44784</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44784</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>44792</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>44792</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12360,7 +12360,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12417,7 +12417,7 @@
         <v>44804</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>44811</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12531,7 +12531,7 @@
         <v>44817</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12588,7 +12588,7 @@
         <v>44832</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         <v>44837</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>44839</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44840</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>44846</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44846</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44846</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44853</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44853</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44854</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44858</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44858</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>44858</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44869</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         <v>44869</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44872</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>44872</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>44881</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>44881</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44881</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44881</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44893</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44893</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44893</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44893</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44893</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44893</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44907</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44909</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44909</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>44911</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>44917</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44928</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44928</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44939</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44944</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44964</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44964</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44964</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44967</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44967</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44985</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44985</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44985</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44994</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>45000</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>45000</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>45000</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>45000</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>45002</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>45002</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>45043</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>45054</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>45054</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>45054</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>45086</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>45098</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>45098</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>45103</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>45107</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>45111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>45111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>45111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>45139</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>45139</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>45139</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>45139</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45139</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>45139</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>45139</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>45139</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>45140</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>45145</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>45148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>45148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>45149</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>45149</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>45149</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>45149</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>45152</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>45152</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>45152</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>45152</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>45152</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45152</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>45152</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>45153</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>45153</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>45153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>45153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>45153</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>45153</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>45153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>45153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>45153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>45153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>45153</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45153</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>45153</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>45154</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>45154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>45154</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>45155</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>45155</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>45155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>45155</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>45156</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45156</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>45156</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>45156</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20049,7 +20049,7 @@
         <v>45156</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>45159</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>45159</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>45160</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>45160</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>45160</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45160</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>45160</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>45160</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>45160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21093,7 +21093,7 @@
         <v>45160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>45160</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>45160</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>45160</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>45160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21398,7 +21398,7 @@
         <v>45161</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>45161</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45161</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>45161</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45161</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45161</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>45161</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>45161</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>45162</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21936,7 +21936,7 @@
         <v>45162</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21993,7 +21993,7 @@
         <v>45162</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22050,7 +22050,7 @@
         <v>45163</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>45163</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>45163</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>45164</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>45166</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>45166</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>45166</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>45166</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45166</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>45167</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>45167</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45167</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>45168</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>45168</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>45168</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>45168</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>45168</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45168</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>45168</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>45168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>45168</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>45168</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23592,7 +23592,7 @@
       </c>
       <c r="R386" s="2" t="inlineStr"/>
     </row>
-    <row r="387">
+    <row r="387" ht="15" customHeight="1">
       <c r="A387" t="inlineStr">
         <is>
           <t>A 40370-2023</t>
@@ -23602,7 +23602,7 @@
         <v>45168</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23648,6 +23648,177 @@
         <v>0</v>
       </c>
       <c r="R387" s="2" t="inlineStr"/>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>A 41359-2023</t>
+        </is>
+      </c>
+      <c r="B388" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C388" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="G388" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="n">
+        <v>0</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0</v>
+      </c>
+      <c r="L388" t="n">
+        <v>0</v>
+      </c>
+      <c r="M388" t="n">
+        <v>0</v>
+      </c>
+      <c r="N388" t="n">
+        <v>0</v>
+      </c>
+      <c r="O388" t="n">
+        <v>0</v>
+      </c>
+      <c r="P388" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q388" t="n">
+        <v>0</v>
+      </c>
+      <c r="R388" s="2" t="inlineStr"/>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>A 41353-2023</t>
+        </is>
+      </c>
+      <c r="B389" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C389" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="G389" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="n">
+        <v>0</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0</v>
+      </c>
+      <c r="L389" t="n">
+        <v>0</v>
+      </c>
+      <c r="M389" t="n">
+        <v>0</v>
+      </c>
+      <c r="N389" t="n">
+        <v>0</v>
+      </c>
+      <c r="O389" t="n">
+        <v>0</v>
+      </c>
+      <c r="P389" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q389" t="n">
+        <v>0</v>
+      </c>
+      <c r="R389" s="2" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>A 41360-2023</t>
+        </is>
+      </c>
+      <c r="B390" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C390" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="G390" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="n">
+        <v>0</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0</v>
+      </c>
+      <c r="L390" t="n">
+        <v>0</v>
+      </c>
+      <c r="M390" t="n">
+        <v>0</v>
+      </c>
+      <c r="N390" t="n">
+        <v>0</v>
+      </c>
+      <c r="O390" t="n">
+        <v>0</v>
+      </c>
+      <c r="P390" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q390" t="n">
+        <v>0</v>
+      </c>
+      <c r="R390" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MALÅ.xlsx
+++ b/Översikt MALÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43720</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>43535</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43530</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>43636</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44454</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44463</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44847</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>45161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43321</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43346</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43353</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43354</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43363</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43402</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43445</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43447</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43507</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43509</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43530</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43601</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43609</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43635</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43642</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43651</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43690</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>43703</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
         <v>43704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43710</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43720</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>43734</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43748</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43752</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43755</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43755</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43755</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43761</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43762</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43767</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>43770</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43770</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43780</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43787</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43787</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43844</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43847</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43861</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43861</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43943</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43970</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43983</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>43983</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>43986</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>44011</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>44011</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44011</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>44021</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>44027</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>44046</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>44060</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>44064</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>44064</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>44070</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44078</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44088</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>44088</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44092</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>44104</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>44104</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44108</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44119</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44139</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44146</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44146</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44231</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44314</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44337</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44365</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44369</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>44385</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44389</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44413</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44439</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>44439</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44439</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>44439</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>44440</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>44440</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>44441</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>44446</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
         <v>44448</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44469</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44471</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44472</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44487</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44490</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>44490</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44491</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>44491</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>44491</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>44491</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>44503</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44523</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44524</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44524</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44525</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44543</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44550</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44552</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44575</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44587</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44587</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44588</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44588</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44616</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44617</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44641</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44641</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44678</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44698</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44729</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44732</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>44740</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>44749</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>44784</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44784</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44784</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>44792</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>44792</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12360,7 +12360,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12417,7 +12417,7 @@
         <v>44804</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>44811</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12531,7 +12531,7 @@
         <v>44817</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12588,7 +12588,7 @@
         <v>44832</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         <v>44837</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>44839</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44840</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>44846</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44846</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44846</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44853</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44853</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44854</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44858</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44858</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>44858</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44869</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         <v>44869</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44872</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>44872</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>44881</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>44881</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44881</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44881</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44893</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44893</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44893</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44893</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44893</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44893</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44907</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44909</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44909</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>44911</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>44917</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44928</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44928</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44939</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44944</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44964</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44964</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44964</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44967</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44967</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44985</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44985</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44985</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44994</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>45000</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>45000</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>45000</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>45000</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>45002</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>45002</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>45043</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>45054</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>45054</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>45054</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>45086</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>45098</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>45098</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>45103</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>45107</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>45111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>45111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>45111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>45139</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>45139</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>45139</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>45139</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45139</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>45139</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>45139</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>45139</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>45140</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>45145</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>45148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>45148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>45149</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>45149</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>45149</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>45149</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>45152</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>45152</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>45152</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>45152</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>45152</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45152</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>45152</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>45153</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>45153</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>45153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>45153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>45153</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>45153</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>45153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>45153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>45153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>45153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>45153</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45153</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>45153</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>45154</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>45154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>45154</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>45155</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>45155</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>45155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>45155</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>45156</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45156</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>45156</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>45156</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20049,7 +20049,7 @@
         <v>45156</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>45159</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>45159</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>45160</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>45160</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>45160</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45160</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>45160</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>45160</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>45160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21093,7 +21093,7 @@
         <v>45160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>45160</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>45160</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>45160</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>45160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21398,7 +21398,7 @@
         <v>45161</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>45161</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45161</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>45161</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45161</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45161</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>45161</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>45161</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>45162</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21936,7 +21936,7 @@
         <v>45162</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21993,7 +21993,7 @@
         <v>45162</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22050,7 +22050,7 @@
         <v>45163</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>45163</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>45163</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>45164</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>45166</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>45166</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>45166</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>45166</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45166</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>45167</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>45167</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45167</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>45168</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>45168</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>45168</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>45168</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>45168</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45168</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>45168</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>45168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>45168</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>45168</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>45168</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23659,7 +23659,7 @@
         <v>45174</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>45174</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>45174</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>

--- a/Översikt MALÅ.xlsx
+++ b/Översikt MALÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43720</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>43535</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43530</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>43636</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44454</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44463</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44847</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>45161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43321</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43346</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43353</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43354</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43363</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43402</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43445</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43447</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43507</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43509</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43530</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43601</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43609</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43635</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43642</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43651</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43690</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>43703</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
         <v>43704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43710</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43720</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>43734</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43748</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43752</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43755</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43755</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43755</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43761</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43762</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43767</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>43770</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43770</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43780</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43787</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43787</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43844</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43847</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43861</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43861</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43943</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43970</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43983</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>43983</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>43986</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>44011</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>44011</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44011</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>44021</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>44027</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>44046</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>44060</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>44064</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>44064</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>44070</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44078</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44088</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>44088</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44092</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>44104</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>44104</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44108</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44119</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44139</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44146</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44146</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44231</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44314</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44337</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44365</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44369</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>44385</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44389</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44413</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44439</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>44439</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44439</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>44439</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>44440</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>44440</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>44441</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>44446</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
         <v>44448</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44469</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44471</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44472</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44487</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44490</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>44490</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44491</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>44491</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>44491</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>44491</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>44503</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44523</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44524</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44524</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44525</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44543</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44550</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44552</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44575</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44587</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44587</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44588</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44588</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44616</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44617</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44641</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44641</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44678</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44698</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44729</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44732</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>44740</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>44749</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>44784</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44784</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44784</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>44792</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>44792</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12360,7 +12360,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12417,7 +12417,7 @@
         <v>44804</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>44811</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12531,7 +12531,7 @@
         <v>44817</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12588,7 +12588,7 @@
         <v>44832</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         <v>44837</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>44839</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44840</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>44846</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44846</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44846</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44853</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44853</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44854</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44858</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44858</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>44858</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44869</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         <v>44869</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44872</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>44872</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>44881</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>44881</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44881</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44881</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44893</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44893</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44893</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44893</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44893</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44893</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44907</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44909</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44909</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>44911</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>44917</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44928</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44928</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44939</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44944</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44964</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44964</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44964</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44967</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44967</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44985</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44985</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44985</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44994</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>45000</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>45000</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>45000</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>45000</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>45002</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>45002</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>45043</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>45054</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>45054</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>45054</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>45086</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>45098</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>45098</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>45103</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>45107</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>45111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>45111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>45111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>45139</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>45139</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>45139</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>45139</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45139</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>45139</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>45139</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>45139</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>45140</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>45145</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>45148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>45148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>45149</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>45149</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>45149</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>45149</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>45152</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>45152</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>45152</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>45152</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>45152</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45152</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>45152</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>45153</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>45153</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>45153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>45153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>45153</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>45153</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>45153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>45153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>45153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>45153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>45153</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45153</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>45153</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>45154</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>45154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>45154</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>45155</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>45155</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>45155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>45155</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>45156</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45156</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>45156</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>45156</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20049,7 +20049,7 @@
         <v>45156</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>45159</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>45159</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>45160</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>45160</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>45160</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45160</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>45160</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>45160</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>45160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21093,7 +21093,7 @@
         <v>45160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>45160</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>45160</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>45160</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>45160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21398,7 +21398,7 @@
         <v>45161</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>45161</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45161</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>45161</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45161</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45161</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>45161</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>45161</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>45162</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21936,7 +21936,7 @@
         <v>45162</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21993,7 +21993,7 @@
         <v>45162</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22050,7 +22050,7 @@
         <v>45163</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>45163</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>45163</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>45164</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>45166</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>45166</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>45166</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>45166</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45166</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>45167</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>45167</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45167</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>45168</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>45168</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>45168</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>45168</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>45168</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45168</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>45168</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>45168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>45168</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>45168</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>45168</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23659,7 +23659,7 @@
         <v>45174</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>45174</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>45174</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>

--- a/Översikt MALÅ.xlsx
+++ b/Översikt MALÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43720</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>43535</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43530</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>43636</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44454</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44463</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44847</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>45161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43321</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43346</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43353</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43354</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43363</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43402</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43445</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43447</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43507</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43509</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43530</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43601</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43609</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43635</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43642</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43651</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43690</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>43703</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
         <v>43704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43710</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43720</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>43734</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43748</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43752</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43755</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43755</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43755</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43761</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43762</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43767</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>43770</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43770</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43780</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43787</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43787</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43844</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43847</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43861</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43861</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43943</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43970</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43983</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>43983</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>43986</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>44011</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>44011</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44011</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>44021</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>44027</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>44046</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>44060</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>44064</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>44064</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>44070</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44078</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44088</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>44088</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44092</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>44104</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>44104</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44108</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44119</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44139</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44146</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44146</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44231</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44314</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44337</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44365</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44369</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>44385</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44389</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44413</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44439</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>44439</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44439</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>44439</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>44440</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>44440</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>44441</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>44446</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
         <v>44448</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44469</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44471</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44472</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44487</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44490</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>44490</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44491</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>44491</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>44491</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>44491</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>44503</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44523</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44524</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44524</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44525</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44543</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44550</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44552</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44575</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44587</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44587</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44588</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44588</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44616</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44617</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44641</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44641</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44678</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44698</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44729</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44732</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>44740</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>44749</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>44784</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44784</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44784</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>44792</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>44792</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12360,7 +12360,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12417,7 +12417,7 @@
         <v>44804</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>44811</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12531,7 +12531,7 @@
         <v>44817</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12588,7 +12588,7 @@
         <v>44832</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         <v>44837</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>44839</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44840</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>44846</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44846</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44846</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44853</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44853</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44854</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44858</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44858</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>44858</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44869</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         <v>44869</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44872</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>44872</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>44881</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>44881</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44881</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44881</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44893</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44893</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44893</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44893</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44893</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44893</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44907</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44909</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44909</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>44911</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>44917</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44928</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44928</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44939</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44944</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44964</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44964</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44964</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44967</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44967</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44985</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44985</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44985</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44994</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>45000</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>45000</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>45000</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>45000</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>45002</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>45002</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>45043</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>45054</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>45054</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>45054</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>45086</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>45098</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>45098</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>45103</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>45107</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>45111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>45111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>45111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>45139</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>45139</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>45139</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>45139</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45139</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>45139</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>45139</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>45139</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>45140</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>45145</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>45148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>45148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>45149</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>45149</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>45149</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>45149</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>45152</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>45152</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>45152</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>45152</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>45152</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45152</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>45152</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>45153</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>45153</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>45153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>45153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>45153</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>45153</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>45153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>45153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>45153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>45153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>45153</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45153</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>45153</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>45154</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>45154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>45154</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>45155</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>45155</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>45155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>45155</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>45156</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45156</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>45156</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>45156</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20049,7 +20049,7 @@
         <v>45156</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>45159</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>45159</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>45160</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>45160</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>45160</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45160</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>45160</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>45160</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>45160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21093,7 +21093,7 @@
         <v>45160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>45160</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>45160</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>45160</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>45160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21398,7 +21398,7 @@
         <v>45161</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>45161</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45161</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>45161</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45161</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45161</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>45161</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>45161</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>45162</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21936,7 +21936,7 @@
         <v>45162</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21993,7 +21993,7 @@
         <v>45162</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22050,7 +22050,7 @@
         <v>45163</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>45163</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>45163</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>45164</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>45166</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>45166</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>45166</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>45166</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45166</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>45167</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>45167</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45167</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>45168</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>45168</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>45168</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>45168</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>45168</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45168</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>45168</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>45168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>45168</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>45168</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>45168</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23659,7 +23659,7 @@
         <v>45174</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>45174</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>45174</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>

--- a/Översikt MALÅ.xlsx
+++ b/Översikt MALÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43720</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>43535</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>43530</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>43636</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44454</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44463</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44847</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>45161</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43321</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>43346</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43353</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43354</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43363</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43402</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43402</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43419</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43426</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43439</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>43441</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>43445</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>43447</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43488</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43494</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43501</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43507</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43509</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43514</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43530</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43601</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>43609</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>43619</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>43635</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43642</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43651</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>43690</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>43703</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>43704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
         <v>43704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>43704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>43710</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43720</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>43734</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43747</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43748</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43752</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43755</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43755</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43755</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43761</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43762</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43767</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>43770</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>43770</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43773</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43780</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43787</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43787</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43844</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43847</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43861</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43861</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43894</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43943</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43970</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43983</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>43983</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>43986</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>44011</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>44011</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44011</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>44021</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>44027</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>44046</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>44060</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>44064</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>44064</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>44070</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44078</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44088</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>44088</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>44092</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44098</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44104</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>44104</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>44104</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>44108</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>44119</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44139</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44146</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44146</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44231</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44242</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44314</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44337</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44365</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44369</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>44385</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44389</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44413</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44439</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>44439</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>44439</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>44439</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>44440</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>44440</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>44441</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>44446</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
         <v>44448</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44469</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44471</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>44472</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>44487</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44490</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>44490</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44491</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>44491</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>44491</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>44491</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>44503</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44523</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44524</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44524</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44525</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>44543</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44550</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44552</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44575</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44587</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44587</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44588</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44588</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44616</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44617</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44641</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44641</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44678</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44698</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44727</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44729</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44732</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>44740</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>44749</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>44784</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44784</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44784</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>44792</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>44792</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>44802</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12360,7 +12360,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12417,7 +12417,7 @@
         <v>44804</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>44811</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12531,7 +12531,7 @@
         <v>44817</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12588,7 +12588,7 @@
         <v>44832</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         <v>44837</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>44839</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44840</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>44846</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44846</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44846</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44853</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44853</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44854</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44858</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44858</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>44858</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44869</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         <v>44869</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44872</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>44872</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>44881</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>44881</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44881</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44881</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44893</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44893</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44893</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44893</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44893</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44893</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44907</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44909</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44909</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>44911</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>44917</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44928</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>44928</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44939</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44944</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>44964</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>44964</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44964</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44967</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>44967</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>44985</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>44985</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44985</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>44994</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>45000</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>45000</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>45000</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>45000</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>45002</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>45002</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45022</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>45043</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>45054</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>45054</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         <v>45054</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>45086</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>45098</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>45098</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>45103</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16668,7 +16668,7 @@
         <v>45107</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>45111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>45111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>45111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>45139</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>45139</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>45139</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>45139</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45139</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>45139</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>45139</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>45139</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>45140</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>45145</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>45148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>45148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>45149</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>45149</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>45149</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>45149</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>45152</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>45152</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>45152</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>45152</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>45152</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45152</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>45152</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>45153</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>45153</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>45153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>45153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>45153</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>45153</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>45153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>45153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>45153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>45153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>45153</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45153</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>45153</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>45154</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>45154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>45154</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>45155</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>45155</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>45155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>45155</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>45156</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45156</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>45156</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         <v>45156</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20049,7 +20049,7 @@
         <v>45156</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>45159</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>45159</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>45159</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>45160</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>45160</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>45160</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45160</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>45160</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>45160</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>45160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21093,7 +21093,7 @@
         <v>45160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>45160</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>45160</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>45160</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>45160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21398,7 +21398,7 @@
         <v>45161</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>45161</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45161</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>45161</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45161</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45161</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>45161</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>45161</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>45162</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21936,7 +21936,7 @@
         <v>45162</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21993,7 +21993,7 @@
         <v>45162</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22050,7 +22050,7 @@
         <v>45163</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>45163</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>45163</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>45164</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>45166</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>45166</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>45166</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>45166</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>45166</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>45167</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>45167</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45167</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>45168</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         <v>45168</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>45168</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>45168</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>45168</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45168</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>45168</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>45168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>45168</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>45168</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23602,7 +23602,7 @@
         <v>45168</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23659,7 +23659,7 @@
         <v>45174</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>45174</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>45174</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>

--- a/Översikt MALÅ.xlsx
+++ b/Översikt MALÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43720</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45180</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43535</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>43979</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43636</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>44847</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45161</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43346</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43354</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43381</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43402</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43437</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43441</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43507</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43509</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43530</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43594</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43601</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43609</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43619</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43676</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43690</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43710</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43720</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43720</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43734</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43748</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43755</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43755</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43755</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43761</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43762</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43770</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43770</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43780</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43787</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43787</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43847</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43861</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43861</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43894</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43943</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43970</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43983</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43986</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44011</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44011</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44011</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44027</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44046</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44060</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>44064</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44070</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44088</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>44088</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44092</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44104</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44104</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44108</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44119</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44139</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44146</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>44146</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>44231</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>44271</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44314</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44365</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44369</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44385</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44389</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44413</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44439</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>44439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44439</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>44439</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44439</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>44440</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44440</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>44441</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>44446</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44448</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44469</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44471</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44490</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44490</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44491</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>44491</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>44491</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44491</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44503</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>44523</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>44524</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44524</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44525</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>44550</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>44552</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44575</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44587</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44588</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44588</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44616</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44617</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44641</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44641</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44678</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44698</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>44727</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44729</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44740</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44741</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44749</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44784</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44784</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44784</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>44792</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>44792</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44802</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44804</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44817</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44832</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44837</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44839</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44840</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44846</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44846</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44846</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44853</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44853</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44854</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>44858</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>44858</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44858</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44869</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44869</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44872</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44872</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>44881</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44881</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44881</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44881</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44889</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44893</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44893</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44893</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44893</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44893</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44893</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44907</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44909</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44909</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44911</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>44928</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44928</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44939</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44944</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44964</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44964</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44964</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44967</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44985</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44985</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44985</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44994</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>45000</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>45000</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>45000</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>45000</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>45002</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>45002</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45022</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45043</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>45054</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>45054</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45086</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>45098</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>45098</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>45103</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45107</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45107</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45139</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>45139</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>45139</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45139</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>45139</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45139</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>45139</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45140</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>45145</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>45149</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         <v>45149</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>45149</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18178,7 +18178,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>45152</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>45152</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>45152</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>45152</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>45152</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45152</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>45153</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>45153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>45153</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>45153</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>45153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>45153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>45153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>45153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>45153</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>45153</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>45153</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>45153</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>45154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>45154</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>45154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>45155</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>45155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45155</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>45155</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>45156</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45156</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45156</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>45156</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>45156</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>45159</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>45159</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>45159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>45160</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
         <v>45160</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>45160</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>45160</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>45160</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>45160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>45160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45160</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45160</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45160</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21361,7 +21361,7 @@
         <v>45160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>45160</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45161</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45161</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45161</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45161</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>45161</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>45161</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>45161</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>45161</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45162</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45162</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45162</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45163</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>45163</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>45163</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>45164</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>45166</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>45166</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22551,7 +22551,7 @@
         <v>45166</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45166</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22675,7 +22675,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>45166</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>45167</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>45167</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>45167</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>45168</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>45168</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>45168</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>45168</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>45168</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>45168</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>45168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>45168</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>45168</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>45168</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45168</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45174</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45174</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         <v>45174</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>

--- a/Översikt MALÅ.xlsx
+++ b/Översikt MALÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43720</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45180</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43535</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>43979</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43636</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>44847</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45161</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43346</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43354</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43381</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43402</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43437</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43441</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43507</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43509</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43530</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43594</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43601</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43609</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43619</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43676</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43690</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43710</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43720</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43720</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43734</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43748</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43755</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43755</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43755</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43761</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43762</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43770</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43770</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43780</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43787</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43787</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43847</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43861</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43861</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43894</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43943</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43970</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43983</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43986</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44011</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44011</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44011</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44027</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44046</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44060</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>44064</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44070</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44088</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>44088</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44092</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44104</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44104</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44108</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44119</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44139</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44146</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>44146</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>44231</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>44271</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44314</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44365</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44369</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44385</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44389</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44413</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44439</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>44439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44439</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>44439</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44439</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>44440</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44440</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>44441</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>44446</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44448</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44469</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44471</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44490</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44490</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44491</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>44491</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>44491</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44491</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44503</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>44523</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>44524</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44524</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44525</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>44550</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>44552</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44575</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44587</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44588</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44588</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44616</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44617</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44641</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44641</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44678</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44698</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>44727</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44729</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44740</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44741</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44749</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44784</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44784</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44784</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>44792</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>44792</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44802</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44804</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44817</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44832</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44837</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44839</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44840</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44846</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44846</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44846</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44853</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44853</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44854</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>44858</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>44858</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44858</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44869</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44869</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44872</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44872</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>44881</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44881</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44881</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44881</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44889</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44893</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44893</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44893</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44893</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44893</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44893</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44907</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44909</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44909</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44911</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>44928</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44928</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44939</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44944</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44964</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44964</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44964</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44967</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44985</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44985</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44985</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44994</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>45000</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>45000</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>45000</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>45000</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>45002</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>45002</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45022</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45043</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>45054</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>45054</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45086</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>45098</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>45098</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>45103</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45107</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45107</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45139</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>45139</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>45139</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45139</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>45139</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45139</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>45139</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45140</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>45145</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>45149</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         <v>45149</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>45149</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18178,7 +18178,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>45152</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>45152</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>45152</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>45152</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>45152</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45152</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>45153</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>45153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>45153</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>45153</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>45153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>45153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>45153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>45153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>45153</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>45153</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>45153</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>45153</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>45154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>45154</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>45154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>45155</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>45155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45155</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>45155</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>45156</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45156</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45156</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>45156</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>45156</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>45159</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>45159</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>45159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>45160</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
         <v>45160</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>45160</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>45160</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>45160</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>45160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>45160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45160</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45160</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45160</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21361,7 +21361,7 @@
         <v>45160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>45160</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45161</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45161</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45161</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45161</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>45161</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>45161</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>45161</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>45161</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45162</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45162</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45162</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45163</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>45163</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>45163</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>45164</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>45166</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>45166</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22551,7 +22551,7 @@
         <v>45166</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45166</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22675,7 +22675,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>45166</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>45167</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>45167</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>45167</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>45168</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>45168</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>45168</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>45168</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>45168</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>45168</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>45168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>45168</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>45168</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>45168</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45168</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45174</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45174</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         <v>45174</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>

--- a/Översikt MALÅ.xlsx
+++ b/Översikt MALÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43720</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -630,27 +630,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/artfynd/A 47001-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/artfynd/A 47001-2019.xlsx", "A 47001-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/kartor/A 47001-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/kartor/A 47001-2019.png", "A 47001-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomål/A 47001-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomål/A 47001-2019.docx", "A 47001-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomålsmail/A 47001-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomålsmail/A 47001-2019.docx", "A 47001-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsyn/A 47001-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsyn/A 47001-2019.docx", "A 47001-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsynsmail/A 47001-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsynsmail/A 47001-2019.docx", "A 47001-2019")</f>
         <v/>
       </c>
     </row>
@@ -664,7 +664,7 @@
         <v>43767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -722,27 +722,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/artfynd/A 57209-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/artfynd/A 57209-2019.xlsx", "A 57209-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/kartor/A 57209-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/kartor/A 57209-2019.png", "A 57209-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomål/A 57209-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomål/A 57209-2019.docx", "A 57209-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomålsmail/A 57209-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomålsmail/A 57209-2019.docx", "A 57209-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsyn/A 57209-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsyn/A 57209-2019.docx", "A 57209-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsynsmail/A 57209-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsynsmail/A 57209-2019.docx", "A 57209-2019")</f>
         <v/>
       </c>
     </row>
@@ -756,7 +756,7 @@
         <v>45180</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,27 +809,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/artfynd/A 42472-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/artfynd/A 42472-2023.xlsx", "A 42472-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/kartor/A 42472-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/kartor/A 42472-2023.png", "A 42472-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomål/A 42472-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomål/A 42472-2023.docx", "A 42472-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomålsmail/A 42472-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomålsmail/A 42472-2023.docx", "A 42472-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsyn/A 42472-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsyn/A 42472-2023.docx", "A 42472-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsynsmail/A 42472-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsynsmail/A 42472-2023.docx", "A 42472-2023")</f>
         <v/>
       </c>
     </row>
@@ -843,7 +843,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,27 +900,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/artfynd/A 13681-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/artfynd/A 13681-2019.xlsx", "A 13681-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/kartor/A 13681-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/kartor/A 13681-2019.png", "A 13681-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomål/A 13681-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomål/A 13681-2019.docx", "A 13681-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomålsmail/A 13681-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomålsmail/A 13681-2019.docx", "A 13681-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsyn/A 13681-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsyn/A 13681-2019.docx", "A 13681-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsynsmail/A 13681-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsynsmail/A 13681-2019.docx", "A 13681-2019")</f>
         <v/>
       </c>
     </row>
@@ -934,7 +934,7 @@
         <v>43535</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -991,27 +991,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/artfynd/A 14337-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/artfynd/A 14337-2019.xlsx", "A 14337-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/kartor/A 14337-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/kartor/A 14337-2019.png", "A 14337-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomål/A 14337-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomål/A 14337-2019.docx", "A 14337-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomålsmail/A 14337-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomålsmail/A 14337-2019.docx", "A 14337-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsyn/A 14337-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsyn/A 14337-2019.docx", "A 14337-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsynsmail/A 14337-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsynsmail/A 14337-2019.docx", "A 14337-2019")</f>
         <v/>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
         <v>43979</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1082,27 +1082,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/artfynd/A 25026-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/artfynd/A 25026-2020.xlsx", "A 25026-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/kartor/A 25026-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/kartor/A 25026-2020.png", "A 25026-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomål/A 25026-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomål/A 25026-2020.docx", "A 25026-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomålsmail/A 25026-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomålsmail/A 25026-2020.docx", "A 25026-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsyn/A 25026-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsyn/A 25026-2020.docx", "A 25026-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsynsmail/A 25026-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsynsmail/A 25026-2020.docx", "A 25026-2020")</f>
         <v/>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
         <v>43530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,27 +1172,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/artfynd/A 13683-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/artfynd/A 13683-2019.xlsx", "A 13683-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/kartor/A 13683-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/kartor/A 13683-2019.png", "A 13683-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomål/A 13683-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomål/A 13683-2019.docx", "A 13683-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomålsmail/A 13683-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomålsmail/A 13683-2019.docx", "A 13683-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsyn/A 13683-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsyn/A 13683-2019.docx", "A 13683-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsynsmail/A 13683-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsynsmail/A 13683-2019.docx", "A 13683-2019")</f>
         <v/>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
         <v>43636</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1257,27 +1257,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/artfynd/A 31376-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/artfynd/A 31376-2019.xlsx", "A 31376-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/kartor/A 31376-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/kartor/A 31376-2019.png", "A 31376-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomål/A 31376-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomål/A 31376-2019.docx", "A 31376-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomålsmail/A 31376-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomålsmail/A 31376-2019.docx", "A 31376-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsyn/A 31376-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsyn/A 31376-2019.docx", "A 31376-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsynsmail/A 31376-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsynsmail/A 31376-2019.docx", "A 31376-2019")</f>
         <v/>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,27 +1347,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/artfynd/A 49370-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/artfynd/A 49370-2021.xlsx", "A 49370-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/kartor/A 49370-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/kartor/A 49370-2021.png", "A 49370-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomål/A 49370-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomål/A 49370-2021.docx", "A 49370-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomålsmail/A 49370-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomålsmail/A 49370-2021.docx", "A 49370-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsyn/A 49370-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsyn/A 49370-2021.docx", "A 49370-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsynsmail/A 49370-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsynsmail/A 49370-2021.docx", "A 49370-2021")</f>
         <v/>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,27 +1437,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/artfynd/A 52037-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/artfynd/A 52037-2021.xlsx", "A 52037-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/kartor/A 52037-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/kartor/A 52037-2021.png", "A 52037-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomål/A 52037-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomål/A 52037-2021.docx", "A 52037-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomålsmail/A 52037-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomålsmail/A 52037-2021.docx", "A 52037-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsyn/A 52037-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsyn/A 52037-2021.docx", "A 52037-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsynsmail/A 52037-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsynsmail/A 52037-2021.docx", "A 52037-2021")</f>
         <v/>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
         <v>44847</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1522,27 +1522,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/artfynd/A 46317-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/artfynd/A 46317-2022.xlsx", "A 46317-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/kartor/A 46317-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/kartor/A 46317-2022.png", "A 46317-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomål/A 46317-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomål/A 46317-2022.docx", "A 46317-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomålsmail/A 46317-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomålsmail/A 46317-2022.docx", "A 46317-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsyn/A 46317-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsyn/A 46317-2022.docx", "A 46317-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsynsmail/A 46317-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsynsmail/A 46317-2022.docx", "A 46317-2022")</f>
         <v/>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
         <v>45161</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,27 +1612,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/artfynd/A 38313-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/artfynd/A 38313-2023.xlsx", "A 38313-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/kartor/A 38313-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/kartor/A 38313-2023.png", "A 38313-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomål/A 38313-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomål/A 38313-2023.docx", "A 38313-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomålsmail/A 38313-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/klagomålsmail/A 38313-2023.docx", "A 38313-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsyn/A 38313-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsyn/A 38313-2023.docx", "A 38313-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsynsmail/A 38313-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MALA/tillsynsmail/A 38313-2023.docx", "A 38313-2023")</f>
         <v/>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43346</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43354</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43381</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43402</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43437</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43441</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43507</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43509</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43530</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43594</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43601</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43609</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43619</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43676</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43690</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43710</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43720</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43720</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43734</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43748</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43755</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43755</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43755</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43761</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43762</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43770</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43770</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43780</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43787</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43787</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43847</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43861</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43861</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43894</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43943</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43970</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43983</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43986</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44011</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44011</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44011</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44027</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44046</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44060</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>44064</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44070</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44088</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>44088</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44092</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44104</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44104</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44108</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44119</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44139</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44146</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>44146</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>44231</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>44271</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44314</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44365</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44369</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44385</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44389</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44413</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44439</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>44439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44439</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>44439</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44439</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>44440</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44440</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>44441</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>44446</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44448</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44469</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44471</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44490</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44490</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44491</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>44491</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>44491</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44491</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44503</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>44523</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>44524</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44524</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44525</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>44550</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>44552</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44575</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44587</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44588</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44588</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44616</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44617</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44641</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44641</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44678</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44698</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>44727</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44729</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44740</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44741</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44749</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44784</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44784</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44784</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>44792</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>44792</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44802</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44804</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44817</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44832</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44837</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44839</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44840</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44846</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44846</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44846</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44853</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44853</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44854</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>44858</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>44858</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44858</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44869</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44869</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44872</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44872</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>44881</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44881</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44881</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44881</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44889</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44893</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44893</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44893</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44893</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44893</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44893</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44907</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44909</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44909</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44911</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>44928</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44928</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44939</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44944</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44964</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44964</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44964</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44967</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44985</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44985</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44985</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44994</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>45000</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>45000</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>45000</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>45000</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>45002</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>45002</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45022</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45043</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>45054</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>45054</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45086</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>45098</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>45098</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>45103</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45107</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45107</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45139</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>45139</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>45139</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45139</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>45139</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45139</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>45139</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45140</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>45145</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>45149</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         <v>45149</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>45149</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18178,7 +18178,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>45152</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>45152</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>45152</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>45152</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>45152</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45152</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>45153</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>45153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>45153</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>45153</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>45153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>45153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>45153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>45153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>45153</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>45153</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>45153</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>45153</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>45154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>45154</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>45154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>45155</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>45155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45155</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>45155</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>45156</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45156</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45156</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>45156</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>45156</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>45159</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>45159</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>45159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>45160</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
         <v>45160</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>45160</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>45160</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>45160</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>45160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>45160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45160</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45160</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45160</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21361,7 +21361,7 @@
         <v>45160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>45160</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45161</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45161</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45161</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45161</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>45161</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>45161</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>45161</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>45161</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45162</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45162</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45162</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45163</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>45163</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>45163</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>45164</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>45166</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>45166</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22551,7 +22551,7 @@
         <v>45166</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45166</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22675,7 +22675,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>45166</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>45167</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>45167</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>45167</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>45168</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>45168</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>45168</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>45168</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>45168</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>45168</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>45168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>45168</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>45168</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>45168</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45168</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45174</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45174</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         <v>45174</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>

--- a/Översikt MALÅ.xlsx
+++ b/Översikt MALÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43720</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45180</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43535</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>43979</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43636</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>44847</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45161</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43346</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43354</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43381</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43402</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43437</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43441</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43507</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43509</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43530</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43594</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43601</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43609</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43619</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43676</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43690</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43710</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43720</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43720</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43734</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43748</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43755</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43755</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43755</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43761</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43762</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43770</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43770</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43780</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43787</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43787</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43847</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43861</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43861</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43894</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43943</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43970</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43983</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43986</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44011</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44011</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44011</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44027</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44046</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44060</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>44064</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44070</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44088</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>44088</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44092</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44104</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44104</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44108</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44119</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44139</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44146</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>44146</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>44231</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>44271</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44314</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44365</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44369</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44385</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44389</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44413</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44439</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>44439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44439</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>44439</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44439</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>44440</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44440</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>44441</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>44446</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44448</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44469</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44471</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44490</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44490</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44491</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>44491</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>44491</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44491</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44503</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>44523</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>44524</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44524</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44525</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>44550</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>44552</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44575</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44587</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44588</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44588</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44616</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44617</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44641</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44641</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44678</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44698</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>44727</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44729</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44740</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44741</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44749</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44784</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44784</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44784</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>44792</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>44792</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44802</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44804</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44817</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44832</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44837</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44839</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44840</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44846</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44846</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44846</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44853</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44853</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44854</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>44858</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>44858</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44858</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44869</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44869</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44872</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44872</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>44881</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44881</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44881</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44881</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44889</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44893</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44893</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44893</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44893</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44893</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44893</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44907</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44909</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44909</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44911</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>44928</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44928</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44939</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44944</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44964</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44964</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44964</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44967</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44985</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44985</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44985</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44994</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>45000</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>45000</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>45000</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>45000</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>45002</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>45002</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45022</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45043</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>45054</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>45054</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45086</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>45098</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>45098</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>45103</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45107</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45107</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45139</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>45139</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>45139</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45139</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>45139</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45139</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>45139</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45140</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>45145</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>45149</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         <v>45149</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>45149</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18178,7 +18178,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>45152</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>45152</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>45152</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>45152</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>45152</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45152</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>45153</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>45153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>45153</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>45153</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>45153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>45153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>45153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>45153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>45153</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>45153</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>45153</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>45153</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>45154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>45154</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>45154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>45155</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>45155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45155</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>45155</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>45156</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45156</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45156</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>45156</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>45156</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>45159</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>45159</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>45159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>45160</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
         <v>45160</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>45160</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>45160</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>45160</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>45160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>45160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45160</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45160</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45160</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21361,7 +21361,7 @@
         <v>45160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>45160</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45161</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45161</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45161</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45161</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>45161</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>45161</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>45161</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>45161</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45162</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45162</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45162</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45163</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>45163</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>45163</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>45164</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>45166</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>45166</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22551,7 +22551,7 @@
         <v>45166</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45166</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22675,7 +22675,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>45166</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>45167</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>45167</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>45167</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>45168</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>45168</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>45168</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>45168</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>45168</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>45168</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>45168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>45168</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>45168</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>45168</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45168</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45174</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45174</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         <v>45174</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>

--- a/Översikt MALÅ.xlsx
+++ b/Översikt MALÅ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y391"/>
+  <dimension ref="A1:Y392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43720</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45180</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43535</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>43979</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43636</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>44847</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45161</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43346</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43354</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43381</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43402</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43437</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43441</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43507</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43509</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43530</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43594</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43601</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43609</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43619</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43676</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43690</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43710</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43720</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43720</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43734</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43748</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43755</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43755</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43755</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43761</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43762</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43770</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43770</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43780</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43787</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43787</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43847</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43861</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43861</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43894</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43943</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43970</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43983</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43986</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44011</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44011</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44011</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44027</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44046</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44060</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>44064</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44070</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44088</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>44088</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44092</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44104</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44104</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44108</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44119</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44139</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44146</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>44146</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>44231</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>44271</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44314</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44365</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44369</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44385</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44389</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44413</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44439</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>44439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44439</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>44439</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44439</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>44440</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44440</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>44441</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>44446</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44448</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44469</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44471</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44490</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44490</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44491</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>44491</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>44491</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44491</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44503</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>44523</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>44524</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44524</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44525</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>44550</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>44552</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44575</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44587</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44588</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44588</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44616</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44617</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44641</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44641</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44678</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44698</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>44727</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44729</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44740</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44741</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44749</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44784</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44784</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44784</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>44792</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>44792</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44802</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44804</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44817</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44832</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44837</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44839</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44840</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44846</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44846</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44846</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44853</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44853</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44854</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>44858</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>44858</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44858</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44869</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44869</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44872</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44872</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>44881</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44881</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44881</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44881</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44889</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44893</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44893</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44893</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44893</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44893</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44893</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44907</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44909</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44909</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44911</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>44928</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44928</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44939</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44944</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44964</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44964</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44964</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44967</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44985</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44985</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44985</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44994</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>45000</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>45000</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>45000</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>45000</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>45002</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>45002</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45022</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45043</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>45054</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>45054</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45086</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>45098</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>45098</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>45103</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45107</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45107</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45139</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>45139</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>45139</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45139</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>45139</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45139</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>45139</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45140</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>45145</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>45149</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         <v>45149</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>45149</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18178,7 +18178,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>45152</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>45152</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>45152</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>45152</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>45152</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45152</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>45153</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>45153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>45153</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>45153</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>45153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>45153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>45153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>45153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>45153</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>45153</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>45153</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>45153</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>45154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>45154</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>45154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>45155</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>45155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45155</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>45155</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>45156</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45156</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45156</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>45156</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>45156</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>45159</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>45159</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>45159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>45160</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
         <v>45160</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>45160</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>45160</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>45160</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>45160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>45160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45160</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45160</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45160</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21361,7 +21361,7 @@
         <v>45160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>45160</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45161</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45161</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45161</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45161</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>45161</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>45161</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>45161</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>45161</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45162</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45162</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45162</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45163</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>45163</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>45163</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>45164</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>45166</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>45166</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22551,7 +22551,7 @@
         <v>45166</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45166</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22675,7 +22675,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>45166</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>45167</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>45167</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>45167</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>45168</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>45168</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>45168</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>45168</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>45168</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>45168</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>45168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>45168</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>45168</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>45168</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45168</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45174</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45174</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
       </c>
       <c r="R390" s="2" t="inlineStr"/>
     </row>
-    <row r="391">
+    <row r="391" ht="15" customHeight="1">
       <c r="A391" t="inlineStr">
         <is>
           <t>A 41360-2023</t>
@@ -23860,7 +23860,7 @@
         <v>45174</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23906,6 +23906,68 @@
         <v>0</v>
       </c>
       <c r="R391" s="2" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>A 44138-2023</t>
+        </is>
+      </c>
+      <c r="B392" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C392" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G392" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="n">
+        <v>0</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0</v>
+      </c>
+      <c r="L392" t="n">
+        <v>0</v>
+      </c>
+      <c r="M392" t="n">
+        <v>0</v>
+      </c>
+      <c r="N392" t="n">
+        <v>0</v>
+      </c>
+      <c r="O392" t="n">
+        <v>0</v>
+      </c>
+      <c r="P392" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>0</v>
+      </c>
+      <c r="R392" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MALÅ.xlsx
+++ b/Översikt MALÅ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y392"/>
+  <dimension ref="A1:Y394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43720</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45180</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43535</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>43979</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43636</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>44847</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45161</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43346</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43354</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43381</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43402</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43437</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43441</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43507</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43509</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43530</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43594</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43601</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43609</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43619</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43676</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43690</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43710</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43720</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43720</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43734</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43748</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43755</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43755</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43755</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43761</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43762</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43770</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43770</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43780</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43787</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43787</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43847</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43861</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43861</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43894</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43943</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43970</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43983</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43986</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44011</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44011</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44011</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44027</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44046</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44060</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>44064</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44070</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44088</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>44088</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44092</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44104</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44104</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44108</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44119</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44139</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44146</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>44146</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>44231</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>44271</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44314</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44365</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44369</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44385</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44389</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44413</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44439</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>44439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44439</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>44439</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44439</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>44440</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44440</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>44441</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>44446</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44448</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44469</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44471</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44490</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44490</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44491</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>44491</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>44491</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44491</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44503</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>44523</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>44524</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44524</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44525</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>44550</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>44552</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44575</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44587</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44588</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44588</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44616</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44617</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44641</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44641</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44678</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44698</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>44727</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44729</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44740</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44741</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44749</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44784</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44784</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44784</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>44792</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>44792</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44802</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44804</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44817</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44832</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44837</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44839</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44840</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44846</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44846</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44846</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44853</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44853</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44854</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>44858</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>44858</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44858</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44869</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44869</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44872</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44872</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>44881</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44881</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44881</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44881</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44889</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44893</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44893</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44893</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44893</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44893</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44893</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44907</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44909</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44909</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44911</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>44928</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44928</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44939</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44944</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44964</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44964</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44964</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44967</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44985</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44985</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44985</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44994</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>45000</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>45000</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>45000</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>45000</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>45002</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>45002</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45022</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45043</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>45054</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>45054</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45086</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>45098</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>45098</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>45103</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45107</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45107</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45139</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>45139</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>45139</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45139</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>45139</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45139</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>45139</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45140</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>45145</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>45149</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         <v>45149</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>45149</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18178,7 +18178,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>45152</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>45152</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>45152</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>45152</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>45152</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45152</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>45153</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>45153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>45153</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>45153</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>45153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>45153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>45153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>45153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>45153</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>45153</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>45153</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>45153</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>45154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>45154</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>45154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>45155</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>45155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45155</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>45155</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>45156</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45156</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45156</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>45156</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>45156</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>45159</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>45159</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>45159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>45160</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
         <v>45160</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>45160</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>45160</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>45160</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>45160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>45160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45160</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45160</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45160</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21361,7 +21361,7 @@
         <v>45160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>45160</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45161</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45161</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45161</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45161</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>45161</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>45161</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>45161</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>45161</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45162</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45162</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45162</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45163</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>45163</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>45163</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>45164</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>45166</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>45166</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22551,7 +22551,7 @@
         <v>45166</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45166</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22675,7 +22675,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>45166</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>45167</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>45167</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>45167</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>45168</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>45168</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>45168</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>45168</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>45168</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>45168</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>45168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>45168</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>45168</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>45168</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45168</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45174</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45174</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         <v>45174</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
       </c>
       <c r="R391" s="2" t="inlineStr"/>
     </row>
-    <row r="392">
+    <row r="392" ht="15" customHeight="1">
       <c r="A392" t="inlineStr">
         <is>
           <t>A 44138-2023</t>
@@ -23917,7 +23917,7 @@
         <v>45188</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23968,6 +23968,120 @@
         <v>0</v>
       </c>
       <c r="R392" s="2" t="inlineStr"/>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>A 44495-2023</t>
+        </is>
+      </c>
+      <c r="B393" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C393" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="G393" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="n">
+        <v>0</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0</v>
+      </c>
+      <c r="L393" t="n">
+        <v>0</v>
+      </c>
+      <c r="M393" t="n">
+        <v>0</v>
+      </c>
+      <c r="N393" t="n">
+        <v>0</v>
+      </c>
+      <c r="O393" t="n">
+        <v>0</v>
+      </c>
+      <c r="P393" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>0</v>
+      </c>
+      <c r="R393" s="2" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>A 44596-2023</t>
+        </is>
+      </c>
+      <c r="B394" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C394" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="G394" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="n">
+        <v>0</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0</v>
+      </c>
+      <c r="L394" t="n">
+        <v>0</v>
+      </c>
+      <c r="M394" t="n">
+        <v>0</v>
+      </c>
+      <c r="N394" t="n">
+        <v>0</v>
+      </c>
+      <c r="O394" t="n">
+        <v>0</v>
+      </c>
+      <c r="P394" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>0</v>
+      </c>
+      <c r="R394" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MALÅ.xlsx
+++ b/Översikt MALÅ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y394"/>
+  <dimension ref="A1:Y400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43720</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45180</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43535</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>43979</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43636</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>44847</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45161</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43346</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43354</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43381</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43402</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43437</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43441</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43507</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43509</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43530</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43594</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43601</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43609</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43619</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43676</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43690</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43710</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43720</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43720</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43734</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43748</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43755</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43755</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43755</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43761</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43762</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43770</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43770</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43780</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43787</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43787</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43847</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43861</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43861</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43894</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43943</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43970</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43983</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43986</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44011</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44011</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44011</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44027</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44046</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44060</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>44064</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44070</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44088</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>44088</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44092</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44104</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44104</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44108</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44119</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44139</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44146</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>44146</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>44231</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>44271</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44314</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44365</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44369</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44385</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44389</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44413</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44439</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>44439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44439</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>44439</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44439</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>44440</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44440</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>44441</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>44446</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44448</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44469</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44471</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44490</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44490</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44491</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>44491</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>44491</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44491</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44503</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>44523</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>44524</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44524</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44525</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>44550</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>44552</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44575</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44587</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44588</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44588</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44616</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44617</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44641</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44641</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44678</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44698</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>44727</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44729</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44740</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44741</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44749</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44784</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44784</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44784</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>44792</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>44792</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44802</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44804</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44817</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44832</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44837</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44839</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44840</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44846</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44846</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44846</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44853</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44853</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44854</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>44858</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>44858</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44858</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44869</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44869</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44872</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44872</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>44881</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44881</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44881</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44881</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44889</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44893</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44893</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44893</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44893</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44893</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44893</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44907</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44909</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44909</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44911</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>44928</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44928</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44939</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44944</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44964</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44964</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44964</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44967</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44985</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44985</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44985</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44994</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>45000</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>45000</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>45000</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>45000</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>45002</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>45002</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45022</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45043</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>45054</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>45054</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45086</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>45098</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>45098</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>45103</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45107</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45107</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45139</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>45139</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>45139</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45139</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>45139</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45139</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>45139</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45140</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>45145</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>45149</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         <v>45149</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>45149</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18178,7 +18178,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>45152</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>45152</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>45152</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>45152</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>45152</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45152</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>45153</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>45153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>45153</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>45153</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>45153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>45153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>45153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>45153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>45153</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>45153</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>45153</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>45153</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>45154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>45154</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>45154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>45155</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>45155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45155</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>45155</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>45156</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45156</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45156</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>45156</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>45156</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>45159</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>45159</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>45159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>45160</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
         <v>45160</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>45160</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>45160</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>45160</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>45160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>45160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45160</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45160</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45160</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21361,7 +21361,7 @@
         <v>45160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>45160</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45161</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45161</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45161</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45161</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>45161</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>45161</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>45161</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>45161</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45162</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45162</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45162</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45163</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>45163</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>45163</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>45164</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>45166</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>45166</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22551,7 +22551,7 @@
         <v>45166</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45166</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22675,7 +22675,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>45166</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>45167</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>45167</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>45167</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>45168</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>45168</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>45168</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>45168</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>45168</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>45168</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>45168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>45168</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>45168</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>45168</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45168</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45174</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45174</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         <v>45174</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23917,7 +23917,7 @@
         <v>45188</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23972,14 +23972,14 @@
     <row r="393" ht="15" customHeight="1">
       <c r="A393" t="inlineStr">
         <is>
-          <t>A 44495-2023</t>
+          <t>A 44596-2023</t>
         </is>
       </c>
       <c r="B393" s="1" t="n">
         <v>45189</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         </is>
       </c>
       <c r="G393" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H393" t="n">
         <v>0</v>
@@ -24026,62 +24026,404 @@
       </c>
       <c r="R393" s="2" t="inlineStr"/>
     </row>
-    <row r="394">
+    <row r="394" ht="15" customHeight="1">
       <c r="A394" t="inlineStr">
         <is>
-          <t>A 44596-2023</t>
+          <t>A 44495-2023</t>
         </is>
       </c>
       <c r="B394" s="1" t="n">
         <v>45189</v>
       </c>
       <c r="C394" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="G394" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="n">
+        <v>0</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0</v>
+      </c>
+      <c r="L394" t="n">
+        <v>0</v>
+      </c>
+      <c r="M394" t="n">
+        <v>0</v>
+      </c>
+      <c r="N394" t="n">
+        <v>0</v>
+      </c>
+      <c r="O394" t="n">
+        <v>0</v>
+      </c>
+      <c r="P394" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>0</v>
+      </c>
+      <c r="R394" s="2" t="inlineStr"/>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>A 45102-2023</t>
+        </is>
+      </c>
+      <c r="B395" s="1" t="n">
         <v>45190</v>
       </c>
-      <c r="D394" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E394" t="inlineStr">
-        <is>
-          <t>MALÅ</t>
-        </is>
-      </c>
-      <c r="G394" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="n">
-        <v>0</v>
-      </c>
-      <c r="J394" t="n">
-        <v>0</v>
-      </c>
-      <c r="K394" t="n">
-        <v>0</v>
-      </c>
-      <c r="L394" t="n">
-        <v>0</v>
-      </c>
-      <c r="M394" t="n">
-        <v>0</v>
-      </c>
-      <c r="N394" t="n">
-        <v>0</v>
-      </c>
-      <c r="O394" t="n">
-        <v>0</v>
-      </c>
-      <c r="P394" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q394" t="n">
-        <v>0</v>
-      </c>
-      <c r="R394" s="2" t="inlineStr"/>
+      <c r="C395" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="G395" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="n">
+        <v>0</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0</v>
+      </c>
+      <c r="L395" t="n">
+        <v>0</v>
+      </c>
+      <c r="M395" t="n">
+        <v>0</v>
+      </c>
+      <c r="N395" t="n">
+        <v>0</v>
+      </c>
+      <c r="O395" t="n">
+        <v>0</v>
+      </c>
+      <c r="P395" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>0</v>
+      </c>
+      <c r="R395" s="2" t="inlineStr"/>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>A 44910-2023</t>
+        </is>
+      </c>
+      <c r="B396" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C396" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="G396" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="n">
+        <v>0</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0</v>
+      </c>
+      <c r="L396" t="n">
+        <v>0</v>
+      </c>
+      <c r="M396" t="n">
+        <v>0</v>
+      </c>
+      <c r="N396" t="n">
+        <v>0</v>
+      </c>
+      <c r="O396" t="n">
+        <v>0</v>
+      </c>
+      <c r="P396" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>0</v>
+      </c>
+      <c r="R396" s="2" t="inlineStr"/>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>A 45103-2023</t>
+        </is>
+      </c>
+      <c r="B397" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C397" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="G397" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="n">
+        <v>0</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0</v>
+      </c>
+      <c r="L397" t="n">
+        <v>0</v>
+      </c>
+      <c r="M397" t="n">
+        <v>0</v>
+      </c>
+      <c r="N397" t="n">
+        <v>0</v>
+      </c>
+      <c r="O397" t="n">
+        <v>0</v>
+      </c>
+      <c r="P397" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>0</v>
+      </c>
+      <c r="R397" s="2" t="inlineStr"/>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>A 45101-2023</t>
+        </is>
+      </c>
+      <c r="B398" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C398" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="G398" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0</v>
+      </c>
+      <c r="L398" t="n">
+        <v>0</v>
+      </c>
+      <c r="M398" t="n">
+        <v>0</v>
+      </c>
+      <c r="N398" t="n">
+        <v>0</v>
+      </c>
+      <c r="O398" t="n">
+        <v>0</v>
+      </c>
+      <c r="P398" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>0</v>
+      </c>
+      <c r="R398" s="2" t="inlineStr"/>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>A 44913-2023</t>
+        </is>
+      </c>
+      <c r="B399" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C399" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="G399" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0</v>
+      </c>
+      <c r="L399" t="n">
+        <v>0</v>
+      </c>
+      <c r="M399" t="n">
+        <v>0</v>
+      </c>
+      <c r="N399" t="n">
+        <v>0</v>
+      </c>
+      <c r="O399" t="n">
+        <v>0</v>
+      </c>
+      <c r="P399" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>0</v>
+      </c>
+      <c r="R399" s="2" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>A 44929-2023</t>
+        </is>
+      </c>
+      <c r="B400" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C400" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="G400" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="n">
+        <v>0</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0</v>
+      </c>
+      <c r="L400" t="n">
+        <v>0</v>
+      </c>
+      <c r="M400" t="n">
+        <v>0</v>
+      </c>
+      <c r="N400" t="n">
+        <v>0</v>
+      </c>
+      <c r="O400" t="n">
+        <v>0</v>
+      </c>
+      <c r="P400" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>0</v>
+      </c>
+      <c r="R400" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MALÅ.xlsx
+++ b/Översikt MALÅ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y400"/>
+  <dimension ref="A1:Y408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43720</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45180</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43535</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>43979</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43636</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>44847</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45161</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43346</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43354</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43381</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43402</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43437</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43441</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43507</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43509</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43530</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43594</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43601</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43609</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43619</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43676</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43690</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43710</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43720</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43720</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43734</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43748</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43755</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43755</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43755</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43761</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43762</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43770</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43770</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43780</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43787</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43787</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43847</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43861</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43861</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43894</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43943</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43970</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43983</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43986</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44011</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44011</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44011</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44027</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44046</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44060</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>44064</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44070</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44088</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>44088</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44092</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44104</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44104</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44108</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44119</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44139</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44146</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>44146</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>44231</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>44271</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44314</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44365</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44369</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44385</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44389</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44413</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44439</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>44439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44439</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>44439</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44439</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>44440</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44440</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>44441</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>44446</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44448</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44469</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44471</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44490</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44490</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44491</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>44491</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>44491</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44491</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44503</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>44523</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>44524</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44524</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44525</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>44550</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>44552</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44575</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44587</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44588</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44588</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44616</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44617</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44641</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44641</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44678</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44698</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>44727</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44729</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44740</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44741</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44749</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44784</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44784</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44784</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>44792</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>44792</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44802</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44804</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44817</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44832</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44837</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44839</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44840</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44846</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44846</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44846</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44853</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44853</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44854</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>44858</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>44858</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44858</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44869</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44869</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44872</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44872</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>44881</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44881</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44881</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44881</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44889</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44893</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44893</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44893</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44893</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44893</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44893</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44907</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44909</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44909</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44911</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>44928</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44928</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44939</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44944</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44964</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44964</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44964</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44967</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44985</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44985</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44985</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44994</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>45000</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>45000</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>45000</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>45000</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>45002</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>45002</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45022</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45043</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>45054</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>45054</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45086</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>45098</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>45098</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>45103</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45107</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45107</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45139</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>45139</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>45139</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45139</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>45139</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45139</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>45139</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45140</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>45145</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>45149</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         <v>45149</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>45149</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18178,7 +18178,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>45152</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>45152</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>45152</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>45152</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>45152</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45152</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>45153</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>45153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>45153</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>45153</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>45153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>45153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>45153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>45153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>45153</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>45153</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>45153</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>45153</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>45154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>45154</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>45154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>45155</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>45155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45155</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>45155</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>45156</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45156</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45156</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>45156</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>45156</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>45159</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>45159</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>45159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>45160</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
         <v>45160</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>45160</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>45160</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>45160</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>45160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>45160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45160</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45160</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45160</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21361,7 +21361,7 @@
         <v>45160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>45160</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45161</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45161</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45161</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45161</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>45161</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>45161</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>45161</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>45161</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45162</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45162</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45162</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45163</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>45163</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>45163</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>45164</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>45166</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>45166</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22551,7 +22551,7 @@
         <v>45166</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45166</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22675,7 +22675,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>45166</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>45167</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>45167</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>45167</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>45168</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>45168</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>45168</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>45168</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>45168</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>45168</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>45168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>45168</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>45168</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>45168</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45168</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45174</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45174</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         <v>45174</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23917,7 +23917,7 @@
         <v>45188</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>45189</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>45189</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>45190</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>45190</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>45190</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>45190</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>45190</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24368,7 +24368,7 @@
       </c>
       <c r="R399" s="2" t="inlineStr"/>
     </row>
-    <row r="400">
+    <row r="400" ht="15" customHeight="1">
       <c r="A400" t="inlineStr">
         <is>
           <t>A 44929-2023</t>
@@ -24378,7 +24378,7 @@
         <v>45190</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24424,6 +24424,462 @@
         <v>0</v>
       </c>
       <c r="R400" s="2" t="inlineStr"/>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>A 45713-2023</t>
+        </is>
+      </c>
+      <c r="B401" s="1" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C401" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="G401" t="n">
+        <v>4</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
+      <c r="I401" t="n">
+        <v>0</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0</v>
+      </c>
+      <c r="L401" t="n">
+        <v>0</v>
+      </c>
+      <c r="M401" t="n">
+        <v>0</v>
+      </c>
+      <c r="N401" t="n">
+        <v>0</v>
+      </c>
+      <c r="O401" t="n">
+        <v>0</v>
+      </c>
+      <c r="P401" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>0</v>
+      </c>
+      <c r="R401" s="2" t="inlineStr"/>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>A 46063-2023</t>
+        </is>
+      </c>
+      <c r="B402" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C402" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="G402" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0</v>
+      </c>
+      <c r="I402" t="n">
+        <v>0</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0</v>
+      </c>
+      <c r="L402" t="n">
+        <v>0</v>
+      </c>
+      <c r="M402" t="n">
+        <v>0</v>
+      </c>
+      <c r="N402" t="n">
+        <v>0</v>
+      </c>
+      <c r="O402" t="n">
+        <v>0</v>
+      </c>
+      <c r="P402" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q402" t="n">
+        <v>0</v>
+      </c>
+      <c r="R402" s="2" t="inlineStr"/>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>A 46648-2023</t>
+        </is>
+      </c>
+      <c r="B403" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C403" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="G403" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0</v>
+      </c>
+      <c r="I403" t="n">
+        <v>0</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0</v>
+      </c>
+      <c r="L403" t="n">
+        <v>0</v>
+      </c>
+      <c r="M403" t="n">
+        <v>0</v>
+      </c>
+      <c r="N403" t="n">
+        <v>0</v>
+      </c>
+      <c r="O403" t="n">
+        <v>0</v>
+      </c>
+      <c r="P403" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>0</v>
+      </c>
+      <c r="R403" s="2" t="inlineStr"/>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>A 46458-2023</t>
+        </is>
+      </c>
+      <c r="B404" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C404" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="G404" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0</v>
+      </c>
+      <c r="I404" t="n">
+        <v>0</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0</v>
+      </c>
+      <c r="L404" t="n">
+        <v>0</v>
+      </c>
+      <c r="M404" t="n">
+        <v>0</v>
+      </c>
+      <c r="N404" t="n">
+        <v>0</v>
+      </c>
+      <c r="O404" t="n">
+        <v>0</v>
+      </c>
+      <c r="P404" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>0</v>
+      </c>
+      <c r="R404" s="2" t="inlineStr"/>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>A 47002-2023</t>
+        </is>
+      </c>
+      <c r="B405" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C405" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="G405" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0</v>
+      </c>
+      <c r="I405" t="n">
+        <v>0</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0</v>
+      </c>
+      <c r="L405" t="n">
+        <v>0</v>
+      </c>
+      <c r="M405" t="n">
+        <v>0</v>
+      </c>
+      <c r="N405" t="n">
+        <v>0</v>
+      </c>
+      <c r="O405" t="n">
+        <v>0</v>
+      </c>
+      <c r="P405" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>0</v>
+      </c>
+      <c r="R405" s="2" t="inlineStr"/>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>A 47100-2023</t>
+        </is>
+      </c>
+      <c r="B406" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C406" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="G406" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0</v>
+      </c>
+      <c r="L406" t="n">
+        <v>0</v>
+      </c>
+      <c r="M406" t="n">
+        <v>0</v>
+      </c>
+      <c r="N406" t="n">
+        <v>0</v>
+      </c>
+      <c r="O406" t="n">
+        <v>0</v>
+      </c>
+      <c r="P406" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>0</v>
+      </c>
+      <c r="R406" s="2" t="inlineStr"/>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>A 47049-2023</t>
+        </is>
+      </c>
+      <c r="B407" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C407" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="G407" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0</v>
+      </c>
+      <c r="I407" t="n">
+        <v>0</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0</v>
+      </c>
+      <c r="L407" t="n">
+        <v>0</v>
+      </c>
+      <c r="M407" t="n">
+        <v>0</v>
+      </c>
+      <c r="N407" t="n">
+        <v>0</v>
+      </c>
+      <c r="O407" t="n">
+        <v>0</v>
+      </c>
+      <c r="P407" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q407" t="n">
+        <v>0</v>
+      </c>
+      <c r="R407" s="2" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>A 47103-2023</t>
+        </is>
+      </c>
+      <c r="B408" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C408" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="G408" t="n">
+        <v>6</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0</v>
+      </c>
+      <c r="L408" t="n">
+        <v>0</v>
+      </c>
+      <c r="M408" t="n">
+        <v>0</v>
+      </c>
+      <c r="N408" t="n">
+        <v>0</v>
+      </c>
+      <c r="O408" t="n">
+        <v>0</v>
+      </c>
+      <c r="P408" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q408" t="n">
+        <v>0</v>
+      </c>
+      <c r="R408" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MALÅ.xlsx
+++ b/Översikt MALÅ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y408"/>
+  <dimension ref="A1:Y409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43720</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45180</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43535</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>43979</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43636</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>44847</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45161</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43346</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43354</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43381</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43402</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43437</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43441</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43507</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43509</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43530</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43594</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43601</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43609</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43619</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43676</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43690</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43710</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43720</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43720</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43734</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43748</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43755</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43755</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43755</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43761</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43762</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43770</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43770</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43780</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43787</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43787</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43847</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43861</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43861</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43894</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43943</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43970</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43983</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43986</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44011</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44011</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44011</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44027</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44046</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44060</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>44064</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44070</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44088</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>44088</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44092</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44104</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44104</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44108</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44119</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44139</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44146</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>44146</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>44231</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>44271</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44314</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44365</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44369</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44385</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44389</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44413</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44439</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>44439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44439</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>44439</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44439</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>44440</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44440</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>44441</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>44446</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44448</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44469</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44471</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44490</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44490</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44491</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>44491</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>44491</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44491</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44503</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>44523</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>44524</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44524</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44525</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>44550</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>44552</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44575</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44587</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44588</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44588</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44616</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44617</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44641</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44641</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44678</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44698</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>44727</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44729</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44740</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44741</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44749</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44784</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44784</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44784</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>44792</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>44792</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44802</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44804</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44817</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44832</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44837</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44839</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44840</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44846</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44846</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44846</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44853</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44853</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44854</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>44858</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>44858</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44858</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44869</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44869</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44872</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44872</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>44881</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44881</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44881</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44881</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44889</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44893</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44893</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44893</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44893</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44893</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44893</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44907</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44909</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44909</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44911</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>44928</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44928</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44939</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44944</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44964</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44964</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44964</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44967</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44985</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44985</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44985</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44994</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>45000</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>45000</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>45000</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>45000</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>45002</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>45002</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45022</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45043</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>45054</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>45054</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45086</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>45098</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>45098</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>45103</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45107</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45107</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45139</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>45139</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>45139</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45139</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>45139</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45139</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>45139</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45140</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>45145</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>45149</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         <v>45149</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>45149</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18178,7 +18178,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>45152</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>45152</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>45152</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>45152</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>45152</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45152</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>45153</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>45153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>45153</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>45153</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>45153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>45153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>45153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>45153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>45153</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>45153</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>45153</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>45153</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>45154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>45154</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>45154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>45155</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>45155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45155</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>45155</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>45156</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45156</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45156</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>45156</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>45156</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>45159</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>45159</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>45159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>45160</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
         <v>45160</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>45160</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>45160</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>45160</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>45160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>45160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45160</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45160</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45160</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21361,7 +21361,7 @@
         <v>45160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>45160</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45161</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45161</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45161</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45161</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>45161</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>45161</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>45161</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>45161</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45162</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45162</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45162</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45163</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>45163</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>45163</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>45164</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>45166</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>45166</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22551,7 +22551,7 @@
         <v>45166</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45166</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22675,7 +22675,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>45166</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>45167</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>45167</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>45167</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>45168</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>45168</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>45168</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>45168</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>45168</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>45168</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>45168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>45168</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>45168</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>45168</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45168</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45174</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45174</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         <v>45174</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23917,7 +23917,7 @@
         <v>45188</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>45189</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>45189</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>45190</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>45190</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>45190</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>45190</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>45190</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24378,7 +24378,7 @@
         <v>45190</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>45195</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>45196</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>45197</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24606,7 +24606,7 @@
         <v>45197</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24656,14 +24656,14 @@
     <row r="405" ht="15" customHeight="1">
       <c r="A405" t="inlineStr">
         <is>
-          <t>A 47002-2023</t>
+          <t>A 47103-2023</t>
         </is>
       </c>
       <c r="B405" s="1" t="n">
         <v>45201</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         </is>
       </c>
       <c r="G405" t="n">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -24713,14 +24713,14 @@
     <row r="406" ht="15" customHeight="1">
       <c r="A406" t="inlineStr">
         <is>
-          <t>A 47100-2023</t>
+          <t>A 46989-2023</t>
         </is>
       </c>
       <c r="B406" s="1" t="n">
         <v>45201</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         </is>
       </c>
       <c r="G406" t="n">
-        <v>1.3</v>
+        <v>22.9</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -24770,14 +24770,14 @@
     <row r="407" ht="15" customHeight="1">
       <c r="A407" t="inlineStr">
         <is>
-          <t>A 47049-2023</t>
+          <t>A 47100-2023</t>
         </is>
       </c>
       <c r="B407" s="1" t="n">
         <v>45201</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         </is>
       </c>
       <c r="G407" t="n">
-        <v>24.6</v>
+        <v>1.3</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -24824,17 +24824,17 @@
       </c>
       <c r="R407" s="2" t="inlineStr"/>
     </row>
-    <row r="408">
+    <row r="408" ht="15" customHeight="1">
       <c r="A408" t="inlineStr">
         <is>
-          <t>A 47103-2023</t>
+          <t>A 47002-2023</t>
         </is>
       </c>
       <c r="B408" s="1" t="n">
         <v>45201</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         </is>
       </c>
       <c r="G408" t="n">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -24880,6 +24880,63 @@
         <v>0</v>
       </c>
       <c r="R408" s="2" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>A 47049-2023</t>
+        </is>
+      </c>
+      <c r="B409" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C409" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="G409" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0</v>
+      </c>
+      <c r="L409" t="n">
+        <v>0</v>
+      </c>
+      <c r="M409" t="n">
+        <v>0</v>
+      </c>
+      <c r="N409" t="n">
+        <v>0</v>
+      </c>
+      <c r="O409" t="n">
+        <v>0</v>
+      </c>
+      <c r="P409" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>0</v>
+      </c>
+      <c r="R409" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MALÅ.xlsx
+++ b/Översikt MALÅ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y409"/>
+  <dimension ref="A1:Y410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43720</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45180</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43535</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>43979</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43636</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>44847</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45161</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43346</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43354</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43381</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43402</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43437</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43441</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43507</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43509</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43530</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43594</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43601</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43609</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43619</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43676</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43690</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43710</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43720</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43720</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43734</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43748</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43755</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43755</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43755</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43761</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43762</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43770</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43770</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43780</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43787</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43787</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43847</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43861</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43861</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43894</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43943</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43970</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43983</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43986</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44011</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44011</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44011</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44027</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44046</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44060</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>44064</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44070</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44088</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>44088</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44092</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44104</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44104</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44108</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44119</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44139</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44146</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>44146</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>44231</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>44271</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44314</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44365</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44369</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44385</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44389</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44413</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44439</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>44439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44439</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>44439</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44439</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>44440</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44440</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>44441</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>44446</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44448</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44469</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44471</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44490</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44490</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44491</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>44491</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>44491</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44491</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44503</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>44523</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>44524</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44524</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44525</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>44550</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>44552</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44575</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44587</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44588</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44588</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44616</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44617</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44641</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44641</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44678</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44698</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>44727</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44729</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44740</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44741</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44749</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44784</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44784</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44784</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>44792</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>44792</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44802</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44804</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44817</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44832</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44837</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44839</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44840</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44846</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44846</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44846</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44853</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44853</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44854</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>44858</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>44858</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44858</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44869</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44869</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44872</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44872</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>44881</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44881</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44881</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44881</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44889</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44893</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44893</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44893</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44893</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44893</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44893</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44907</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44909</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44909</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44911</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>44928</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44928</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44939</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44944</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44964</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44964</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44964</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44967</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44985</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44985</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44985</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44994</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>45000</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>45000</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>45000</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>45000</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>45002</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>45002</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45022</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45043</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>45054</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>45054</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45086</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>45098</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>45098</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>45103</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45107</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45107</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45139</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>45139</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>45139</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45139</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>45139</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45139</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>45139</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45140</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>45145</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>45149</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         <v>45149</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>45149</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18178,7 +18178,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>45152</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>45152</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>45152</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>45152</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>45152</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45152</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>45153</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>45153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>45153</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>45153</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>45153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>45153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>45153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>45153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>45153</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>45153</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>45153</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>45153</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>45154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>45154</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>45154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>45155</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>45155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45155</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>45155</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>45156</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45156</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45156</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>45156</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>45156</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>45159</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>45159</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>45159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>45160</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
         <v>45160</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>45160</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>45160</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>45160</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>45160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>45160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45160</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45160</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45160</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21361,7 +21361,7 @@
         <v>45160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>45160</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45161</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45161</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45161</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45161</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>45161</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>45161</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>45161</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>45161</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45162</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45162</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45162</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45163</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>45163</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>45163</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>45164</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>45166</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>45166</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22551,7 +22551,7 @@
         <v>45166</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45166</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22675,7 +22675,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>45166</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>45167</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>45167</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>45167</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>45168</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>45168</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>45168</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>45168</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>45168</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>45168</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>45168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>45168</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>45168</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>45168</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45168</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45174</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45174</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         <v>45174</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23917,7 +23917,7 @@
         <v>45188</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>45189</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>45189</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>45190</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>45190</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>45190</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>45190</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>45190</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24378,7 +24378,7 @@
         <v>45190</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>45195</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>45196</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>45197</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24606,7 +24606,7 @@
         <v>45197</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         <v>45201</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24720,7 +24720,7 @@
         <v>45201</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24777,7 +24777,7 @@
         <v>45201</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24834,7 +24834,7 @@
         <v>45201</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
       </c>
       <c r="R408" s="2" t="inlineStr"/>
     </row>
-    <row r="409">
+    <row r="409" ht="15" customHeight="1">
       <c r="A409" t="inlineStr">
         <is>
           <t>A 47049-2023</t>
@@ -24891,7 +24891,7 @@
         <v>45201</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24937,6 +24937,68 @@
         <v>0</v>
       </c>
       <c r="R409" s="2" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>A 47593-2023</t>
+        </is>
+      </c>
+      <c r="B410" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C410" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G410" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0</v>
+      </c>
+      <c r="L410" t="n">
+        <v>0</v>
+      </c>
+      <c r="M410" t="n">
+        <v>0</v>
+      </c>
+      <c r="N410" t="n">
+        <v>0</v>
+      </c>
+      <c r="O410" t="n">
+        <v>0</v>
+      </c>
+      <c r="P410" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>0</v>
+      </c>
+      <c r="R410" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MALÅ.xlsx
+++ b/Översikt MALÅ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y410"/>
+  <dimension ref="A1:Y414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43720</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45180</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43535</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>43979</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43636</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>44847</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45161</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43346</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43354</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43381</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43402</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43437</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43441</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43507</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43509</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43530</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43594</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43601</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43609</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43619</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43676</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43690</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43710</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43720</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43720</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43734</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43748</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43755</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43755</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43755</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43761</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43762</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43770</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43770</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43780</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43787</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43787</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43847</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43861</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43861</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43894</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43943</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43970</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43983</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43986</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44011</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44011</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44011</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44027</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44046</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44060</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>44064</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44070</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44088</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>44088</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44092</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44104</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44104</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44108</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44119</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44139</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44146</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>44146</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>44231</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>44271</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44314</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44365</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44369</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44385</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44389</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44413</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44439</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>44439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44439</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>44439</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44439</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>44440</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44440</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>44441</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>44446</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44448</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44469</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44471</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44490</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44490</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44491</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>44491</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>44491</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44491</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44503</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>44523</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>44524</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44524</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44525</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>44550</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>44552</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44575</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44587</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44588</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44588</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44616</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44617</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44641</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44641</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44678</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44698</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>44727</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44729</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44740</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44741</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44749</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44784</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44784</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44784</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>44792</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>44792</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44802</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44804</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44817</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44832</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44837</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44839</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44840</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44846</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44846</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44846</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44853</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44853</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44854</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>44858</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>44858</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44858</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44869</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44869</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44872</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44872</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>44881</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44881</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44881</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44881</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44889</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44893</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44893</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44893</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44893</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44893</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44893</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44907</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44909</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44909</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44911</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>44928</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44928</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44939</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44944</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44964</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44964</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44964</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44967</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44985</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44985</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44985</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44994</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>45000</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>45000</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>45000</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>45000</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>45002</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>45002</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45022</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45043</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>45054</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>45054</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45086</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>45098</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>45098</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>45103</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45107</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45107</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45139</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>45139</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>45139</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45139</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>45139</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45139</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>45139</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45140</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>45145</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>45149</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         <v>45149</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>45149</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18178,7 +18178,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>45152</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>45152</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>45152</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>45152</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>45152</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45152</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>45153</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>45153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>45153</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>45153</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>45153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>45153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>45153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>45153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>45153</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>45153</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>45153</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>45153</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>45154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>45154</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>45154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>45155</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>45155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45155</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>45155</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>45156</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45156</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45156</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>45156</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>45156</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>45159</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>45159</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>45159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>45160</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
         <v>45160</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>45160</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>45160</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>45160</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>45160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>45160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45160</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45160</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45160</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21361,7 +21361,7 @@
         <v>45160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>45160</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45161</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45161</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45161</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45161</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>45161</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>45161</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>45161</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>45161</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45162</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45162</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45162</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45163</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>45163</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>45163</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>45164</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>45166</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>45166</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22551,7 +22551,7 @@
         <v>45166</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45166</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22675,7 +22675,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>45166</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>45167</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>45167</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>45167</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>45168</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>45168</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>45168</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>45168</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>45168</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>45168</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>45168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>45168</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>45168</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>45168</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45168</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45174</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45174</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         <v>45174</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23917,7 +23917,7 @@
         <v>45188</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>45189</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>45189</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>45190</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>45190</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>45190</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>45190</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>45190</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24378,7 +24378,7 @@
         <v>45190</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>45195</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>45196</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>45197</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24606,7 +24606,7 @@
         <v>45197</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         <v>45201</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24720,7 +24720,7 @@
         <v>45201</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24777,7 +24777,7 @@
         <v>45201</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24834,7 +24834,7 @@
         <v>45201</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24891,7 +24891,7 @@
         <v>45201</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24938,17 +24938,17 @@
       </c>
       <c r="R409" s="2" t="inlineStr"/>
     </row>
-    <row r="410">
+    <row r="410" ht="15" customHeight="1">
       <c r="A410" t="inlineStr">
         <is>
-          <t>A 47593-2023</t>
+          <t>A 47664-2023</t>
         </is>
       </c>
       <c r="B410" s="1" t="n">
         <v>45203</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24960,45 +24960,273 @@
           <t>MALÅ</t>
         </is>
       </c>
-      <c r="F410" t="inlineStr">
+      <c r="G410" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0</v>
+      </c>
+      <c r="L410" t="n">
+        <v>0</v>
+      </c>
+      <c r="M410" t="n">
+        <v>0</v>
+      </c>
+      <c r="N410" t="n">
+        <v>0</v>
+      </c>
+      <c r="O410" t="n">
+        <v>0</v>
+      </c>
+      <c r="P410" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>0</v>
+      </c>
+      <c r="R410" s="2" t="inlineStr"/>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>A 47665-2023</t>
+        </is>
+      </c>
+      <c r="B411" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C411" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="G411" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0</v>
+      </c>
+      <c r="L411" t="n">
+        <v>0</v>
+      </c>
+      <c r="M411" t="n">
+        <v>0</v>
+      </c>
+      <c r="N411" t="n">
+        <v>0</v>
+      </c>
+      <c r="O411" t="n">
+        <v>0</v>
+      </c>
+      <c r="P411" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>0</v>
+      </c>
+      <c r="R411" s="2" t="inlineStr"/>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>A 47687-2023</t>
+        </is>
+      </c>
+      <c r="B412" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C412" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="G412" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0</v>
+      </c>
+      <c r="I412" t="n">
+        <v>0</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0</v>
+      </c>
+      <c r="L412" t="n">
+        <v>0</v>
+      </c>
+      <c r="M412" t="n">
+        <v>0</v>
+      </c>
+      <c r="N412" t="n">
+        <v>0</v>
+      </c>
+      <c r="O412" t="n">
+        <v>0</v>
+      </c>
+      <c r="P412" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>0</v>
+      </c>
+      <c r="R412" s="2" t="inlineStr"/>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>A 47593-2023</t>
+        </is>
+      </c>
+      <c r="B413" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C413" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G410" t="n">
+      <c r="G413" t="n">
         <v>23.1</v>
       </c>
-      <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="n">
-        <v>0</v>
-      </c>
-      <c r="J410" t="n">
-        <v>0</v>
-      </c>
-      <c r="K410" t="n">
-        <v>0</v>
-      </c>
-      <c r="L410" t="n">
-        <v>0</v>
-      </c>
-      <c r="M410" t="n">
-        <v>0</v>
-      </c>
-      <c r="N410" t="n">
-        <v>0</v>
-      </c>
-      <c r="O410" t="n">
-        <v>0</v>
-      </c>
-      <c r="P410" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q410" t="n">
-        <v>0</v>
-      </c>
-      <c r="R410" s="2" t="inlineStr"/>
+      <c r="H413" t="n">
+        <v>0</v>
+      </c>
+      <c r="I413" t="n">
+        <v>0</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0</v>
+      </c>
+      <c r="L413" t="n">
+        <v>0</v>
+      </c>
+      <c r="M413" t="n">
+        <v>0</v>
+      </c>
+      <c r="N413" t="n">
+        <v>0</v>
+      </c>
+      <c r="O413" t="n">
+        <v>0</v>
+      </c>
+      <c r="P413" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>0</v>
+      </c>
+      <c r="R413" s="2" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>A 47666-2023</t>
+        </is>
+      </c>
+      <c r="B414" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C414" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>MALÅ</t>
+        </is>
+      </c>
+      <c r="G414" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0</v>
+      </c>
+      <c r="I414" t="n">
+        <v>0</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0</v>
+      </c>
+      <c r="L414" t="n">
+        <v>0</v>
+      </c>
+      <c r="M414" t="n">
+        <v>0</v>
+      </c>
+      <c r="N414" t="n">
+        <v>0</v>
+      </c>
+      <c r="O414" t="n">
+        <v>0</v>
+      </c>
+      <c r="P414" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q414" t="n">
+        <v>0</v>
+      </c>
+      <c r="R414" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MALÅ.xlsx
+++ b/Översikt MALÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43720</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>45180</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43535</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>43979</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43530</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43636</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44454</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>44847</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45161</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43321</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43346</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>43353</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43354</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43363</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43381</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43402</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43402</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43426</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43437</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>43437</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43439</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>43439</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43441</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43441</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43488</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43494</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43501</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43507</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43507</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>43509</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>43509</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>43514</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>43530</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43594</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43601</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43609</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43619</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43676</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43690</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>43703</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>43704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>43704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43710</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>43720</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43720</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43727</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43727</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43734</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43748</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>43755</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43755</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43755</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>43761</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43762</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>43767</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43770</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43770</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43773</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>43780</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43787</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43787</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43847</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43847</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43861</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43861</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43894</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>43943</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>43970</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>43983</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43986</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44011</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>44011</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44011</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>44027</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>44046</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44060</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>44064</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44070</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>44078</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44088</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>44088</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44092</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>44104</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44104</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44108</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44119</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44139</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44146</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44146</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44146</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>44146</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>44231</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>44242</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>44271</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44314</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44365</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44369</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44385</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44389</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>44413</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>44439</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9279,7 +9279,7 @@
         <v>44439</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>44439</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>44439</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44439</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>44440</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44440</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>44441</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>44446</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44448</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44469</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44471</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44472</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44472</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44487</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44487</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44490</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44490</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>44491</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>44491</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>44491</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44491</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44491</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>44503</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>44523</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>44524</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>44524</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>44525</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44543</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>44550</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>44552</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>44575</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>44587</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44587</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         <v>44588</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
         <v>44588</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>44616</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>44617</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         <v>44641</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44641</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44678</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>44698</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>44727</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44729</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         <v>44732</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11857,7 +11857,7 @@
         <v>44740</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11914,7 +11914,7 @@
         <v>44741</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         <v>44749</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12028,7 +12028,7 @@
         <v>44784</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>44784</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>44784</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44784</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>44792</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>44792</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44802</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44804</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44817</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44832</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44837</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44839</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44840</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44846</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>44846</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44846</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44853</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44853</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44854</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
         <v>44858</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>44858</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44858</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44869</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44869</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44872</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44872</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>44881</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44881</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44881</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44881</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44889</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44893</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44893</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44893</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44893</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44893</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44893</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44893</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44907</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44909</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>44909</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44911</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>44928</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44928</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44939</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44944</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44964</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44964</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44964</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44967</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>44985</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44985</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44985</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44994</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>45000</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>45000</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>45000</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>45000</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>45000</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>45002</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>45002</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>45022</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>45022</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45022</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45043</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>45054</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>45054</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45086</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>45098</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>45098</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>45103</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45107</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45107</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>45111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45139</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>45139</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>45139</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>45139</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45139</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>45139</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45139</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>45139</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45140</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>45145</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         <v>45149</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         <v>45149</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>45149</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18178,7 +18178,7 @@
         <v>45149</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45152</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>45152</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>45152</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>45152</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>45152</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>45152</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45152</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>45152</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>45153</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45153</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>45153</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>45153</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>45153</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>45153</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>45153</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>45153</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>45153</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>45153</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>45153</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>45153</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>45153</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>45154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>45154</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>45154</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>45155</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>45155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45155</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>45155</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>45156</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45156</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45156</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>45156</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>45156</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>45159</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>45159</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>45159</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>45159</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>45160</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>45160</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>45160</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>45160</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>45160</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>45160</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
         <v>45160</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>45160</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>45160</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>45160</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>45160</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>45160</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45160</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45160</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45160</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21361,7 +21361,7 @@
         <v>45160</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>45160</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45161</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45161</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45161</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45161</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>45161</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>45161</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>45161</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>45161</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>45162</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
         <v>45162</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45162</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>45163</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>45163</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>45163</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>45164</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>45166</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>45166</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22551,7 +22551,7 @@
         <v>45166</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45166</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22675,7 +22675,7 @@
         <v>45166</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>45166</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>45166</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>45167</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>45167</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>45167</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23089,7 +23089,7 @@
         <v>45168</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         <v>45168</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>45168</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>45168</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>45168</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>45168</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>45168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>45168</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>45168</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>45168</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45168</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45174</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45174</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         <v>45174</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23917,7 +23917,7 @@
         <v>45188</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>45189</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>45189</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>45190</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>45190</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>45190</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>45190</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>45190</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24378,7 +24378,7 @@
         <v>45190</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>45195</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>45196</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>45197</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24606,7 +24606,7 @@
         <v>45197</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         <v>45201</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24720,7 +24720,7 @@
         <v>45201</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24777,7 +24777,7 @@
         <v>45201</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24834,7 +24834,7 @@
         <v>45201</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24891,7 +24891,7 @@
         <v>45201</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24948,7 +24948,7 @@
         <v>45203</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>45203</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25062,7 +25062,7 @@
         <v>45203</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25119,7 +25119,7 @@
         <v>45203</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25181,7 +25181,7 @@
         <v>45203</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
